--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/55.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/55.xlsx
@@ -479,13 +479,13 @@
         <v>-16.42283114403533</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.765168543346277</v>
+        <v>-8.798658654015412</v>
       </c>
       <c r="F2" t="n">
-        <v>6.785161787702493</v>
+        <v>6.600010440914803</v>
       </c>
       <c r="G2" t="n">
-        <v>-16.40850731155732</v>
+        <v>-16.14862510014906</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-15.91960457284284</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.903082861481019</v>
+        <v>-8.968059960484506</v>
       </c>
       <c r="F3" t="n">
-        <v>6.745675402331847</v>
+        <v>6.555653718887035</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.89488317877357</v>
+        <v>-15.65488817538189</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-15.21853460080452</v>
       </c>
       <c r="E4" t="n">
-        <v>-8.941168370447601</v>
+        <v>-9.005399208189109</v>
       </c>
       <c r="F4" t="n">
-        <v>6.82556463427206</v>
+        <v>6.636904550322787</v>
       </c>
       <c r="G4" t="n">
-        <v>-15.04694709292634</v>
+        <v>-14.82716660512228</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-14.36203413820343</v>
       </c>
       <c r="E5" t="n">
-        <v>-9.926416528498855</v>
+        <v>-9.97332624958076</v>
       </c>
       <c r="F5" t="n">
-        <v>6.920457645268891</v>
+        <v>6.720119227184798</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.90781200727344</v>
+        <v>-13.72059207663675</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-13.36885238810323</v>
       </c>
       <c r="E6" t="n">
-        <v>-10.57151356641922</v>
+        <v>-10.60853859885562</v>
       </c>
       <c r="F6" t="n">
-        <v>7.072197435204496</v>
+        <v>6.859578437054864</v>
       </c>
       <c r="G6" t="n">
-        <v>-13.14124458358753</v>
+        <v>-12.98191125800373</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-12.27461231121016</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.46400275883685</v>
+        <v>-11.49753214641451</v>
       </c>
       <c r="F7" t="n">
-        <v>7.395184546309878</v>
+        <v>7.181937117623844</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.66004690158885</v>
+        <v>-11.52418807500026</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-11.0894260591255</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.24989442151714</v>
+        <v>-12.31777801175149</v>
       </c>
       <c r="F8" t="n">
-        <v>7.720344979686987</v>
+        <v>7.510161149865916</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.84668758754662</v>
+        <v>-10.70813174657263</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-9.855038976016829</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.07880739133534</v>
+        <v>-13.11135485619987</v>
       </c>
       <c r="F9" t="n">
-        <v>7.764387486446553</v>
+        <v>7.555015379401669</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.464140407460349</v>
+        <v>-9.407961335966503</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-8.583326294971135</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.14594790366159</v>
+        <v>-14.18030210631828</v>
       </c>
       <c r="F10" t="n">
-        <v>7.890780578080576</v>
+        <v>7.713798828266123</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.731652248071459</v>
+        <v>-8.688395279482396</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.306576750784425</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.04078061828788</v>
+        <v>-15.05464536699727</v>
       </c>
       <c r="F11" t="n">
-        <v>8.137753778886896</v>
+        <v>7.954540092919782</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.787723397788692</v>
+        <v>-7.772968372486067</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-6.053987586902655</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.39244305597052</v>
+        <v>-16.38682645805142</v>
       </c>
       <c r="F12" t="n">
-        <v>8.025029051419635</v>
+        <v>7.854226868546477</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.318469079335547</v>
+        <v>-7.327987183501482</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.843044909965689</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.43503550046854</v>
+        <v>-17.42381539693318</v>
       </c>
       <c r="F13" t="n">
-        <v>7.988737187942371</v>
+        <v>7.818746727845399</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.179363361642207</v>
+        <v>-7.169426303785338</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-3.712024712350648</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.90225060303225</v>
+        <v>-18.89328237558567</v>
       </c>
       <c r="F14" t="n">
-        <v>7.895650914737698</v>
+        <v>7.749750291869503</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.184793483967645</v>
+        <v>-6.207849029271925</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.669013169673738</v>
       </c>
       <c r="E15" t="n">
-        <v>-20.05636328313609</v>
+        <v>-20.03165810767375</v>
       </c>
       <c r="F15" t="n">
-        <v>7.935111115502661</v>
+        <v>7.788870092760581</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.70621744589119</v>
+        <v>-5.755261212336296</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-1.729044550793267</v>
       </c>
       <c r="E16" t="n">
-        <v>-21.03929410358436</v>
+        <v>-20.99043362937904</v>
       </c>
       <c r="F16" t="n">
-        <v>7.802538456927342</v>
+        <v>7.683922193181305</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.076150371633124</v>
+        <v>-5.12527269189528</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.8969654350577211</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.20894734716132</v>
+        <v>-22.14243844872535</v>
       </c>
       <c r="F17" t="n">
-        <v>8.160351093591716</v>
+        <v>8.027542773565246</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.254428259428908</v>
+        <v>-5.298418396977107</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.1629536773814805</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.11628321100147</v>
+        <v>-23.03547751786233</v>
       </c>
       <c r="F18" t="n">
-        <v>8.601561699357884</v>
+        <v>8.48168857453904</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.615222757787316</v>
+        <v>-4.678851349598104</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4682879604053242</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.75182286784737</v>
+        <v>-23.67993303294346</v>
       </c>
       <c r="F19" t="n">
-        <v>8.900799373108375</v>
+        <v>8.778857664440538</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.761251120330049</v>
+        <v>-3.860045637573714</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.008441891293407</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.67287946506564</v>
+        <v>-24.58239856012647</v>
       </c>
       <c r="F20" t="n">
-        <v>9.111716371888582</v>
+        <v>8.985820787762545</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.429465981715027</v>
+        <v>-3.520025440471246</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.458856930050757</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.68580156797043</v>
+        <v>-24.60837368896446</v>
       </c>
       <c r="F21" t="n">
-        <v>8.915515121502475</v>
+        <v>8.790326521729892</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.436404902221142</v>
+        <v>-3.556958826787755</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.818856411400588</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.37237502129339</v>
+        <v>-25.29050885162407</v>
       </c>
       <c r="F22" t="n">
-        <v>9.336982534583321</v>
+        <v>9.21561688724052</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.955855109769465</v>
+        <v>-4.056482549410972</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.091121330334332</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.43109399953853</v>
+        <v>-25.34014177169706</v>
       </c>
       <c r="F23" t="n">
-        <v>8.915253275445641</v>
+        <v>8.830388968425572</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.81997009857519</v>
+        <v>-3.922391183706014</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.267882949285092</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.85757576460775</v>
+        <v>-25.77159861184614</v>
       </c>
       <c r="F24" t="n">
-        <v>8.887209562758663</v>
+        <v>8.814102143690466</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.751012939507819</v>
+        <v>-3.859521945460045</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.346773606490836</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.81784062548311</v>
+        <v>-25.75883361657545</v>
       </c>
       <c r="F25" t="n">
-        <v>9.04450048909916</v>
+        <v>8.977336975521107</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.607874792539228</v>
+        <v>-3.705896863915231</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.324410679629367</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.15602790018774</v>
+        <v>-26.07882259033008</v>
       </c>
       <c r="F26" t="n">
-        <v>8.947538894253338</v>
+        <v>8.876630982062549</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.438067624682041</v>
+        <v>-3.560991256063007</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.196907379002336</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.15890820681292</v>
+        <v>-26.07828580591357</v>
       </c>
       <c r="F27" t="n">
-        <v>8.813787928422263</v>
+        <v>8.743953585064498</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.634936582513076</v>
+        <v>-3.747844602220122</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.967091425774253</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.06277142704613</v>
+        <v>-25.97794639693458</v>
       </c>
       <c r="F28" t="n">
-        <v>8.711484674017017</v>
+        <v>8.62837473557774</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.897384885278317</v>
+        <v>-3.991374527379068</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.640845051334373</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.82682194523254</v>
+        <v>-25.76205432307452</v>
       </c>
       <c r="F29" t="n">
-        <v>8.630417134821048</v>
+        <v>8.543588982374722</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.728742932374043</v>
+        <v>-3.818961991256378</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.230166466545109</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.75921329335787</v>
+        <v>-25.70453983669082</v>
       </c>
       <c r="F30" t="n">
-        <v>8.724079469350757</v>
+        <v>8.626829843842415</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.852046240537419</v>
+        <v>-3.940982253741264</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.7561987300783948</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.46332724913486</v>
+        <v>-25.39633393549374</v>
       </c>
       <c r="F31" t="n">
-        <v>8.557309715752851</v>
+        <v>8.472157378070264</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.30192395078481</v>
+        <v>-4.389459087584591</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.2393261582922408</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.00236035838052</v>
+        <v>-24.94141568865229</v>
       </c>
       <c r="F32" t="n">
-        <v>8.758067087527877</v>
+        <v>8.66500699892889</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.160749649242478</v>
+        <v>-4.24419998755564</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-0.2969884830336372</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.88009134214164</v>
+        <v>-24.81621399657686</v>
       </c>
       <c r="F33" t="n">
-        <v>8.826696939024206</v>
+        <v>8.729054544430612</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.300077936084127</v>
+        <v>-4.381446598245454</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-0.8275858151433743</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.51003740232025</v>
+        <v>-24.45137079328648</v>
       </c>
       <c r="F34" t="n">
-        <v>8.962542673309956</v>
+        <v>8.856940158588593</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.302290535264379</v>
+        <v>-4.390768317868764</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-1.333786442690968</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.28872511508372</v>
+        <v>-24.23617261147703</v>
       </c>
       <c r="F35" t="n">
-        <v>8.859846649819456</v>
+        <v>8.756967334089174</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.458651908103113</v>
+        <v>-4.538868447614369</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-1.795898261063194</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.99494693161823</v>
+        <v>-23.94651850340668</v>
       </c>
       <c r="F36" t="n">
-        <v>9.01870865250096</v>
+        <v>8.906533801753051</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.312659639115026</v>
+        <v>-4.407893049985741</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.20324857002109</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.3290593167852</v>
+        <v>-23.28399561040398</v>
       </c>
       <c r="F37" t="n">
-        <v>8.963328211480459</v>
+        <v>8.866733201114204</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.402368098186533</v>
+        <v>-4.492272941800666</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.549291001958337</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.90057442938119</v>
+        <v>-22.86297333561975</v>
       </c>
       <c r="F38" t="n">
-        <v>9.017373237611105</v>
+        <v>8.890273161623627</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.431184256741172</v>
+        <v>-4.530725035246816</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.829380089928661</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.73749670518465</v>
+        <v>-22.7056955015821</v>
       </c>
       <c r="F39" t="n">
-        <v>9.141566822367718</v>
+        <v>9.014964253888227</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.726009824434001</v>
+        <v>-4.807286840475436</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.048729961337897</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.04259654725435</v>
+        <v>-22.00022985525853</v>
       </c>
       <c r="F40" t="n">
-        <v>9.470340731329143</v>
+        <v>9.322869032119941</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.6340756738794</v>
+        <v>-4.729282900144433</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.21171475919659</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.3671646436497</v>
+        <v>-21.31852673859269</v>
       </c>
       <c r="F41" t="n">
-        <v>9.436772066842957</v>
+        <v>9.290269198044042</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.680147487579434</v>
+        <v>-4.772369668796554</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.331988752778753</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.66791784117596</v>
+        <v>-20.60155295807125</v>
       </c>
       <c r="F42" t="n">
-        <v>9.384900362984039</v>
+        <v>9.228552082448147</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.006316028275356</v>
+        <v>-5.080313723936793</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.421922631389731</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.81169432762992</v>
+        <v>-19.77816494005225</v>
       </c>
       <c r="F43" t="n">
-        <v>9.522814681118781</v>
+        <v>9.363952678437277</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.158487864204739</v>
+        <v>-5.235248035765778</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.493258653085583</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.14803240427998</v>
+        <v>-19.10673928111718</v>
       </c>
       <c r="F44" t="n">
-        <v>9.208128090015054</v>
+        <v>9.052748639889447</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.952401925173128</v>
+        <v>-5.027028051370967</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.561081990664168</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.58612385861594</v>
+        <v>-18.53676587690263</v>
       </c>
       <c r="F45" t="n">
-        <v>9.288593383280302</v>
+        <v>9.10084976052995</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.055687102291506</v>
+        <v>-5.108003944447042</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.630899297980671</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.98915412594175</v>
+        <v>-17.92196442775802</v>
       </c>
       <c r="F46" t="n">
-        <v>9.303204393251669</v>
+        <v>9.129312426907862</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.180050886985061</v>
+        <v>-5.220493010463153</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.715981086981898</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.86290504963899</v>
+        <v>-17.79661872035133</v>
       </c>
       <c r="F47" t="n">
-        <v>9.180738992470163</v>
+        <v>9.000065213254343</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.523278698283752</v>
+        <v>-5.543912167562312</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.820818622218346</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.17756227278315</v>
+        <v>-17.12483956923952</v>
       </c>
       <c r="F48" t="n">
-        <v>9.054372085441821</v>
+        <v>8.886083624714276</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.614990279690043</v>
+        <v>-5.637783978937488</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.949060610184913</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.28136795866132</v>
+        <v>-16.23359414559186</v>
       </c>
       <c r="F49" t="n">
-        <v>8.987522787131969</v>
+        <v>8.817741803880466</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.772477590573166</v>
+        <v>-5.778971372782662</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.108754252778156</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.71926302845465</v>
+        <v>-15.6973465134976</v>
       </c>
       <c r="F50" t="n">
-        <v>8.740287740268814</v>
+        <v>8.554638885973139</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.054302501544162</v>
+        <v>-6.05596522400506</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.295517299030307</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.98495503897076</v>
+        <v>-14.96032841732548</v>
       </c>
       <c r="F51" t="n">
-        <v>8.510622563819256</v>
+        <v>8.337804166308471</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.973575362222078</v>
+        <v>-5.968822856290532</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.517991716244958</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.27982979252108</v>
+        <v>-14.26731355100439</v>
       </c>
       <c r="F52" t="n">
-        <v>8.342779241388326</v>
+        <v>8.178627948358766</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.061031945204808</v>
+        <v>-6.065417866656786</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.775555363932661</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.79841272472797</v>
+        <v>-13.78042390062344</v>
       </c>
       <c r="F53" t="n">
-        <v>8.424475211120697</v>
+        <v>8.234715373732721</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.115587571146281</v>
+        <v>-6.130342596448906</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.066974873634462</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.39908439575249</v>
+        <v>-13.39697653499497</v>
       </c>
       <c r="F54" t="n">
-        <v>8.214029535242792</v>
+        <v>8.025866958801506</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.343013963809905</v>
+        <v>-6.353474713780444</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.399784705141196</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.81757667273438</v>
+        <v>-12.82479053160017</v>
       </c>
       <c r="F55" t="n">
-        <v>8.113402095601286</v>
+        <v>7.943359266292948</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.704296060727335</v>
+        <v>-6.681882038262301</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.766323688286947</v>
       </c>
       <c r="E56" t="n">
-        <v>-12.47199224692418</v>
+        <v>-12.48902533292127</v>
       </c>
       <c r="F56" t="n">
-        <v>8.204812554042217</v>
+        <v>8.04812387363244</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.609180480582196</v>
+        <v>-6.592736548212987</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.174833583916263</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.02532215087301</v>
+        <v>-12.03302042494395</v>
       </c>
       <c r="F57" t="n">
-        <v>7.817804082040795</v>
+        <v>7.659256294627492</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.842825717095639</v>
+        <v>-6.825360585104776</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.622838114844643</v>
       </c>
       <c r="E58" t="n">
-        <v>-11.53438697891397</v>
+        <v>-11.55708903204152</v>
       </c>
       <c r="F58" t="n">
-        <v>7.97022467172417</v>
+        <v>7.801648180334105</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.713764979035783</v>
+        <v>-7.672615871204237</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.102388585862125</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.5851327447285</v>
+        <v>-11.59592080227008</v>
       </c>
       <c r="F59" t="n">
-        <v>7.831446261601873</v>
+        <v>7.663445831536845</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.716134685850134</v>
+        <v>-7.680301052972331</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.615222604538215</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.44549024261865</v>
+        <v>-11.45380385492314</v>
       </c>
       <c r="F60" t="n">
-        <v>7.666430876584759</v>
+        <v>7.50678333573275</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.962558009937102</v>
+        <v>-7.911471844248688</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.142539234287524</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.47454206262444</v>
+        <v>-11.47014304886962</v>
       </c>
       <c r="F61" t="n">
-        <v>7.459729599319587</v>
+        <v>7.312388823138802</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.42870945261676</v>
+        <v>-8.369401320743741</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.681851623909898</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.65369713471062</v>
+        <v>-11.65563479553119</v>
       </c>
       <c r="F62" t="n">
-        <v>7.564179991390878</v>
+        <v>7.412990078174625</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.701173367055921</v>
+        <v>-8.617369536566033</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.22074816932887</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.25186817589236</v>
+        <v>-11.25281082169696</v>
       </c>
       <c r="F63" t="n">
-        <v>7.9401123751882</v>
+        <v>7.769388746132092</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.764815051169551</v>
+        <v>-8.707064903334697</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.74093120526272</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.91412603948435</v>
+        <v>-10.93583307759593</v>
       </c>
       <c r="F64" t="n">
-        <v>7.776249112821157</v>
+        <v>7.62435221525145</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.062507833184718</v>
+        <v>-8.978612356574937</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-10.23894105655154</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.90433299695874</v>
+        <v>-10.94196027532586</v>
       </c>
       <c r="F65" t="n">
-        <v>7.770933637867416</v>
+        <v>7.60523745310253</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.106838370606802</v>
+        <v>-9.033442920876086</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-10.6922933395306</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.58014139399192</v>
+        <v>-10.64877124548825</v>
       </c>
       <c r="F66" t="n">
-        <v>7.551951780536705</v>
+        <v>7.410712017480165</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.560264094924301</v>
+        <v>-9.470634189669845</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-11.0985744339542</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.81136455447965</v>
+        <v>-10.87571322294673</v>
       </c>
       <c r="F67" t="n">
-        <v>7.32823050957729</v>
+        <v>7.182094225257944</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.566129446597396</v>
+        <v>-9.508405483368225</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-11.44879753855759</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.01633764776971</v>
+        <v>-11.06445186071305</v>
       </c>
       <c r="F68" t="n">
-        <v>7.273740345150027</v>
+        <v>7.131191351809314</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.435154048968768</v>
+        <v>-9.318449261437621</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-11.73063265482295</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.8373004064091</v>
+        <v>-10.88669766503094</v>
       </c>
       <c r="F69" t="n">
-        <v>7.20118280280118</v>
+        <v>7.063373223089172</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.37039951911359</v>
+        <v>-9.28278582849676</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-11.94975798296395</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.11907294816873</v>
+        <v>-11.18389293953812</v>
       </c>
       <c r="F70" t="n">
-        <v>7.054182426494281</v>
+        <v>6.926244443124933</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.581958040733042</v>
+        <v>-9.486200937748658</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-12.09355328031328</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.06314263042888</v>
+        <v>-11.11073315125855</v>
       </c>
       <c r="F71" t="n">
-        <v>6.602628901483149</v>
+        <v>6.475712117735456</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.503967192704879</v>
+        <v>-9.414402748964632</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-12.17007646177894</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.08327859219945</v>
+        <v>-11.14016464804675</v>
       </c>
       <c r="F72" t="n">
-        <v>6.927318011957955</v>
+        <v>6.792126892814291</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.8594101225549</v>
+        <v>-9.767659264240084</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-12.18017750314272</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.52355964446386</v>
+        <v>-11.57357224131925</v>
       </c>
       <c r="F73" t="n">
-        <v>7.104797269280393</v>
+        <v>6.963714613857953</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.454085518877903</v>
+        <v>-9.39163523432287</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-12.12137514303818</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.69458439648533</v>
+        <v>-11.73350781283378</v>
       </c>
       <c r="F74" t="n">
-        <v>6.972434087550543</v>
+        <v>6.850649486516807</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.578331472845884</v>
+        <v>-9.506061961159556</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-12.00627913413822</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.23438004264969</v>
+        <v>-12.27008275249908</v>
       </c>
       <c r="F75" t="n">
-        <v>6.964657259662557</v>
+        <v>6.829885094209829</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.816873230622132</v>
+        <v>-9.727387340698934</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-11.82702247975638</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.06277922930319</v>
+        <v>-12.11486041000757</v>
       </c>
       <c r="F76" t="n">
-        <v>6.859368960209396</v>
+        <v>6.727660393621632</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.897273062373172</v>
+        <v>-9.810876955920621</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-11.59375946215132</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.8210985021988</v>
+        <v>-12.85416965917701</v>
       </c>
       <c r="F77" t="n">
-        <v>6.787387479185586</v>
+        <v>6.664188909444944</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.599789757203473</v>
+        <v>-9.512686666397469</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-11.30454260468612</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.51111523116914</v>
+        <v>-13.53917203615895</v>
       </c>
       <c r="F78" t="n">
-        <v>6.842715550994721</v>
+        <v>6.697286251028828</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.92235473126404</v>
+        <v>-8.851617019010195</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.95379768494898</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.67632700072888</v>
+        <v>-13.73567440951042</v>
       </c>
       <c r="F79" t="n">
-        <v>7.030904312041692</v>
+        <v>6.882359043999467</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.236569999465466</v>
+        <v>-9.120074688779788</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.54701396078831</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.29615589416471</v>
+        <v>-14.3453174913354</v>
       </c>
       <c r="F80" t="n">
-        <v>7.007023951658383</v>
+        <v>6.860390159831051</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.57533015214125</v>
+        <v>-8.488004492186937</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-10.07101662517804</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.86766109781174</v>
+        <v>-14.9076842675989</v>
       </c>
       <c r="F81" t="n">
-        <v>7.160256264117945</v>
+        <v>6.989113681370902</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.429783021449781</v>
+        <v>-8.307788943570577</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.532244649359985</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.71345004599293</v>
+        <v>-15.7502786938867</v>
       </c>
       <c r="F82" t="n">
-        <v>7.251273953473625</v>
+        <v>7.08353536946543</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.322203568999317</v>
+        <v>-8.221458298632236</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-8.928725770373864</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.69624994341278</v>
+        <v>-16.71742019710785</v>
       </c>
       <c r="F83" t="n">
-        <v>7.383087258484123</v>
+        <v>7.212154152582547</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.210971364056013</v>
+        <v>-8.097015960121629</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.262406198940337</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.50810364262821</v>
+        <v>-17.53405258686051</v>
       </c>
       <c r="F84" t="n">
-        <v>7.3780598141929</v>
+        <v>7.193222682673412</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.89874612588653</v>
+        <v>-7.808225944038836</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-7.551383325878886</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.37220872248497</v>
+        <v>-18.37363578349472</v>
       </c>
       <c r="F85" t="n">
-        <v>7.514638717437786</v>
+        <v>7.331320293047938</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.597976652703557</v>
+        <v>-7.529975231743632</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.802924877894235</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.66003309151136</v>
+        <v>-19.66674944286916</v>
       </c>
       <c r="F86" t="n">
-        <v>7.398431437414626</v>
+        <v>7.228650454163122</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.699586015058193</v>
+        <v>-7.598133760337658</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.045849097918057</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.67958308300793</v>
+        <v>-20.6703791941102</v>
       </c>
       <c r="F87" t="n">
-        <v>7.516838224315197</v>
+        <v>7.312048423264917</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.086892426671096</v>
+        <v>-7.011991362113582</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-5.301998919571861</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.92107379227745</v>
+        <v>-21.93419227972486</v>
       </c>
       <c r="F88" t="n">
-        <v>7.870356585647484</v>
+        <v>7.669599213872456</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.15503786296228</v>
+        <v>-7.098557668503074</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.59246746286283</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.68480336960058</v>
+        <v>-23.66979959054396</v>
       </c>
       <c r="F89" t="n">
-        <v>7.693165358987563</v>
+        <v>7.480127407146997</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.861691725490566</v>
+        <v>-6.807921637719597</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.947798671010545</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.81627945809107</v>
+        <v>-24.84661432377535</v>
       </c>
       <c r="F90" t="n">
-        <v>8.060954330417331</v>
+        <v>7.843072226525327</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.241316138689255</v>
+        <v>-7.165852105109546</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.379362201501491</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.55699276701844</v>
+        <v>-26.57377709926154</v>
       </c>
       <c r="F91" t="n">
-        <v>8.106725021152005</v>
+        <v>7.906805556758849</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.797421610840533</v>
+        <v>-6.750970120358089</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-2.906107462016206</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.5668183608575</v>
+        <v>-28.57916440243724</v>
       </c>
       <c r="F92" t="n">
-        <v>7.804476117747918</v>
+        <v>7.593637672784761</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.021574927793725</v>
+        <v>-6.952945076297397</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.533268471611646</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.41937921296173</v>
+        <v>-30.40061794298954</v>
       </c>
       <c r="F93" t="n">
-        <v>7.85493385289993</v>
+        <v>7.667897214503031</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.211488689461924</v>
+        <v>-6.184649468636386</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.25505100809622</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.37123208981762</v>
+        <v>-32.33386665750734</v>
       </c>
       <c r="F94" t="n">
-        <v>7.823329033840004</v>
+        <v>7.638570456137566</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.634658101912194</v>
+        <v>-6.574813185622665</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.068925754514062</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.79296771566306</v>
+        <v>-34.72102551154778</v>
       </c>
       <c r="F95" t="n">
-        <v>7.849461270312089</v>
+        <v>7.625006830393537</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.897103221323556</v>
+        <v>-5.877373120941075</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-1.955970956831454</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.24440977665638</v>
+        <v>-37.16617017487422</v>
       </c>
       <c r="F96" t="n">
-        <v>7.544620090945338</v>
+        <v>7.324774141627075</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.80345397909669</v>
+        <v>-5.773511882497663</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-1.900008419528393</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.19687799174582</v>
+        <v>-39.10690768661748</v>
       </c>
       <c r="F97" t="n">
-        <v>7.503824475290521</v>
+        <v>7.285942371398515</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.376775829484838</v>
+        <v>-5.360973419954874</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-1.885696430692165</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.61227694301587</v>
+        <v>-41.52343257593191</v>
       </c>
       <c r="F98" t="n">
-        <v>7.445773204490307</v>
+        <v>7.207859877250461</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.508733149826594</v>
+        <v>-5.49291764799379</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-1.888386362127906</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.08605447265717</v>
+        <v>-43.99464401421623</v>
       </c>
       <c r="F99" t="n">
-        <v>7.245749001674416</v>
+        <v>7.019540193175073</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.281922095396532</v>
+        <v>-5.249544830468944</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-1.905888651111572</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.20348570355237</v>
+        <v>-46.09068242226805</v>
       </c>
       <c r="F100" t="n">
-        <v>6.993722171971189</v>
+        <v>6.778956036155515</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.287381585681532</v>
+        <v>-5.27333354473236</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.913145902355371</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.623964468325</v>
+        <v>-48.48301273593098</v>
       </c>
       <c r="F101" t="n">
-        <v>7.012470349640541</v>
+        <v>6.765811364102422</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.264116563531784</v>
+        <v>-5.251587229712253</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-1.927384008160158</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.16783818738089</v>
+        <v>-51.02870628508187</v>
       </c>
       <c r="F102" t="n">
-        <v>6.17173503035626</v>
+        <v>5.961996338831808</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.962613921389675</v>
+        <v>-4.971058456722588</v>
       </c>
     </row>
   </sheetData>
